--- a/Albatross_Raw_Data/Ambassis_interrupta.xlsx
+++ b/Albatross_Raw_Data/Ambassis_interrupta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02852A2B-C743-41C8-8A1D-DFF2376A08F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B27FAF-96B1-4CBB-88C8-E6E78D78E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2B2EA1D-D5B8-4450-B18B-2E02BFC403B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="15600" xr2:uid="{D2B2EA1D-D5B8-4450-B18B-2E02BFC403B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4934C687-EFE6-4BFA-9FFF-3C99D0BDE7ED}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,7 +1627,7 @@
         <v>63.9</v>
       </c>
       <c r="F35" s="2">
-        <v>881.7</v>
+        <v>81.7</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="2"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>88.17</v>
+        <v>8.17</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>9</v>
